--- a/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_diff_alpha4_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_diff_alpha4_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4528301886792453</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="C3">
-        <v>0.5095541401273885</v>
+        <v>0.5087336244541485</v>
       </c>
       <c r="D3">
-        <v>0.489451476793249</v>
+        <v>0.5155555555555555</v>
       </c>
       <c r="E3">
-        <v>0.4989561586638831</v>
+        <v>0.494692144373673</v>
       </c>
       <c r="F3">
-        <v>0.4713114754098361</v>
+        <v>0.4935622317596566</v>
       </c>
       <c r="G3">
-        <v>0.5020746887966805</v>
+        <v>0.4968944099378882</v>
       </c>
       <c r="H3">
-        <v>0.49</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4057971014492754</v>
+        <v>0.4430379746835443</v>
       </c>
       <c r="C4">
-        <v>0.5135699373695198</v>
+        <v>0.5106837606837606</v>
       </c>
       <c r="D4">
-        <v>0.4405594405594406</v>
+        <v>0.4306569343065693</v>
       </c>
       <c r="E4">
-        <v>0.5021156558533145</v>
+        <v>0.4957627118644068</v>
       </c>
       <c r="F4">
-        <v>0.4453125</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="G4">
-        <v>0.5181058495821727</v>
+        <v>0.4958448753462604</v>
       </c>
       <c r="H4">
-        <v>0.482</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4367816091954023</v>
+        <v>0.4431818181818182</v>
       </c>
       <c r="C5">
-        <v>0.5283757338551859</v>
+        <v>0.5266272189349113</v>
       </c>
       <c r="D5">
-        <v>0.4722222222222222</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E5">
-        <v>0.5135834411384217</v>
+        <v>0.5125313283208021</v>
       </c>
       <c r="F5">
-        <v>0.4456521739130435</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G5">
-        <v>0.5210396039603961</v>
+        <v>0.4993880048959609</v>
       </c>
       <c r="H5">
-        <v>0.482</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -533,22 +533,22 @@
         <v>0.4842105263157895</v>
       </c>
       <c r="C6">
-        <v>0.5363636363636364</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D6">
-        <v>0.4466019417475728</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="E6">
-        <v>0.508641975308642</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="F6">
-        <v>0.3548387096774194</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="G6">
-        <v>0.5143540669856459</v>
+        <v>0.5023696682464455</v>
       </c>
       <c r="H6">
-        <v>0.49</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>0.5241379310344828</v>
+        <v>0.5279187817258884</v>
       </c>
       <c r="D7">
-        <v>0.4111111111111111</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E7">
-        <v>0.5168539325842697</v>
+        <v>0.5054545454545455</v>
       </c>
       <c r="F7">
-        <v>0.4556962025316456</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G7">
-        <v>0.5163636363636364</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="H7">
-        <v>0.492</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.453781512605042</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="C8">
-        <v>0.5373608903020668</v>
+        <v>0.5334346504559271</v>
       </c>
       <c r="D8">
-        <v>0.5094339622641509</v>
+        <v>0.38</v>
       </c>
       <c r="E8">
-        <v>0.5173697270471465</v>
+        <v>0.511543134872418</v>
       </c>
       <c r="F8">
-        <v>0.3763440860215054</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="G8">
-        <v>0.509090909090909</v>
+        <v>0.5158264947245017</v>
       </c>
       <c r="H8">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.5429864253393665</v>
+        <v>0.5306704707560628</v>
       </c>
       <c r="D9">
-        <v>0.4315789473684211</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="E9">
-        <v>0.5031210986267166</v>
+        <v>0.5079754601226993</v>
       </c>
       <c r="F9">
-        <v>0.3838383838383838</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G9">
-        <v>0.5036674816625917</v>
+        <v>0.5143884892086331</v>
       </c>
       <c r="H9">
-        <v>0.488</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4766355140186916</v>
+        <v>0.51</v>
       </c>
       <c r="C10">
-        <v>0.530812324929972</v>
+        <v>0.5293333333333333</v>
       </c>
       <c r="D10">
-        <v>0.4347826086956522</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="E10">
-        <v>0.5181476846057572</v>
+        <v>0.5080545229244114</v>
       </c>
       <c r="F10">
-        <v>0.4838709677419355</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="G10">
-        <v>0.49625</v>
+        <v>0.5117139334155364</v>
       </c>
       <c r="H10">
-        <v>0.488</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4690265486725664</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C11">
-        <v>0.5252918287937743</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="D11">
-        <v>0.4636363636363636</v>
+        <v>0.4757281553398058</v>
       </c>
       <c r="E11">
-        <v>0.506815365551425</v>
+        <v>0.4962686567164179</v>
       </c>
       <c r="F11">
-        <v>0.3861386138613861</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="G11">
-        <v>0.4895191122071517</v>
+        <v>0.5129151291512916</v>
       </c>
       <c r="H11">
-        <v>0.482</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5047619047619047</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="C12">
-        <v>0.5305105853051059</v>
+        <v>0.527810650887574</v>
       </c>
       <c r="D12">
-        <v>0.48</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E12">
-        <v>0.5082592121982211</v>
+        <v>0.4962871287128713</v>
       </c>
       <c r="F12">
-        <v>0.4731182795698925</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G12">
-        <v>0.5100250626566416</v>
+        <v>0.5214723926380368</v>
       </c>
       <c r="H12">
-        <v>0.458</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4628099173553719</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C13">
-        <v>0.5238095238095238</v>
+        <v>0.5272108843537415</v>
       </c>
       <c r="D13">
-        <v>0.4444444444444444</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="E13">
-        <v>0.5113924050632911</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>0.49</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="G13">
-        <v>0.49813200498132</v>
+        <v>0.5164433617539586</v>
       </c>
       <c r="H13">
-        <v>0.466</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4910714285714285</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C14">
-        <v>0.5342920353982301</v>
+        <v>0.5292207792207793</v>
       </c>
       <c r="D14">
-        <v>0.4368932038834951</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="E14">
-        <v>0.5178791615289766</v>
+        <v>0.5050251256281407</v>
       </c>
       <c r="F14">
-        <v>0.4285714285714285</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="G14">
-        <v>0.4938725490196079</v>
+        <v>0.5099255583126551</v>
       </c>
       <c r="H14">
-        <v>0.468</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4912280701754386</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="C15">
-        <v>0.5268595041322314</v>
+        <v>0.5291113381001021</v>
       </c>
       <c r="D15">
-        <v>0.3882352941176471</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="E15">
-        <v>0.5245700245700246</v>
+        <v>0.5043695380774033</v>
       </c>
       <c r="F15">
-        <v>0.4204545454545455</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G15">
-        <v>0.4981773997569867</v>
+        <v>0.5030750307503075</v>
       </c>
       <c r="H15">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4770642201834863</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>0.5259042033235581</v>
+        <v>0.5335305719921104</v>
       </c>
       <c r="D16">
-        <v>0.4691358024691358</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="E16">
-        <v>0.5258724428399518</v>
+        <v>0.5075949367088608</v>
       </c>
       <c r="F16">
-        <v>0.4303797468354431</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="G16">
-        <v>0.5012019230769231</v>
+        <v>0.5018450184501845</v>
       </c>
       <c r="H16">
-        <v>0.454</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4636363636363636</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C17">
-        <v>0.5300647548566142</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="E17">
-        <v>0.5186074429771909</v>
+        <v>0.5062972292191436</v>
       </c>
       <c r="F17">
-        <v>0.4102564102564102</v>
+        <v>0.3977272727272727</v>
       </c>
       <c r="G17">
-        <v>0.5</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="H17">
-        <v>0.456</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4851485148514851</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C18">
-        <v>0.5364354697102721</v>
+        <v>0.5298308103294747</v>
       </c>
       <c r="D18">
-        <v>0.4534883720930232</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="E18">
-        <v>0.5174488567990373</v>
+        <v>0.508641975308642</v>
       </c>
       <c r="F18">
-        <v>0.4827586206896552</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="G18">
-        <v>0.4946236559139785</v>
+        <v>0.4987893462469734</v>
       </c>
       <c r="H18">
-        <v>0.458</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4888888888888889</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C19">
-        <v>0.531328320802005</v>
+        <v>0.5245762711864407</v>
       </c>
       <c r="D19">
-        <v>0.3717948717948718</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E19">
-        <v>0.5242130750605327</v>
+        <v>0.5098280098280098</v>
       </c>
       <c r="F19">
-        <v>0.4777777777777778</v>
+        <v>0.3295454545454545</v>
       </c>
       <c r="G19">
-        <v>0.4915458937198068</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="H19">
-        <v>0.452</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5061728395061729</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="C20">
-        <v>0.5272435897435898</v>
+        <v>0.5308943089430894</v>
       </c>
       <c r="D20">
-        <v>0.3956043956043956</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E20">
-        <v>0.5287637698898409</v>
+        <v>0.5048426150121066</v>
       </c>
       <c r="F20">
-        <v>0.4204545454545455</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="G20">
-        <v>0.4925558312655087</v>
+        <v>0.4993954050785974</v>
       </c>
       <c r="H20">
-        <v>0.448</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4651162790697674</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C21">
-        <v>0.5260736196319018</v>
+        <v>0.5286821705426357</v>
       </c>
       <c r="D21">
-        <v>0.4705882352941176</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="E21">
-        <v>0.527363184079602</v>
+        <v>0.5107655502392344</v>
       </c>
       <c r="F21">
-        <v>0.3925233644859813</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="G21">
-        <v>0.4938271604938271</v>
+        <v>0.489051094890511</v>
       </c>
       <c r="H21">
-        <v>0.444</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="C22">
-        <v>0.5310650887573964</v>
+        <v>0.5345724907063197</v>
       </c>
       <c r="D22">
-        <v>0.4361702127659575</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="E22">
-        <v>0.5198511166253101</v>
+        <v>0.5107913669064749</v>
       </c>
       <c r="F22">
-        <v>0.4444444444444444</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="G22">
-        <v>0.4925742574257426</v>
+        <v>0.48</v>
       </c>
       <c r="H22">
-        <v>0.436</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C23">
-        <v>0.5287356321839081</v>
+        <v>0.52990851513019</v>
       </c>
       <c r="D23">
-        <v>0.3465346534653465</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="E23">
-        <v>0.525609756097561</v>
+        <v>0.5083732057416268</v>
       </c>
       <c r="F23">
-        <v>0.4623655913978494</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="G23">
-        <v>0.4950617283950617</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="H23">
-        <v>0.428</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5346534653465347</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>0.532871972318339</v>
+        <v>0.5338809034907598</v>
       </c>
       <c r="D24">
-        <v>0.40625</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="E24">
-        <v>0.5330073349633252</v>
+        <v>0.5042630937880633</v>
       </c>
       <c r="F24">
-        <v>0.4320987654320987</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="G24">
-        <v>0.4969843184559711</v>
+        <v>0.4774114774114774</v>
       </c>
       <c r="H24">
-        <v>0.432</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5462962962962963</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="C25">
-        <v>0.5293333333333333</v>
+        <v>0.5363881401617251</v>
       </c>
       <c r="D25">
-        <v>0.3763440860215054</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="E25">
-        <v>0.5219512195121951</v>
+        <v>0.5105067985166872</v>
       </c>
       <c r="F25">
-        <v>0.4358974358974359</v>
+        <v>0.46</v>
       </c>
       <c r="G25">
-        <v>0.4958382877526754</v>
+        <v>0.4826732673267327</v>
       </c>
       <c r="H25">
-        <v>0.438</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4563106796116505</v>
+        <v>0.4272727272727272</v>
       </c>
       <c r="C26">
-        <v>0.5264175257731959</v>
+        <v>0.5381107491856677</v>
       </c>
       <c r="D26">
-        <v>0.4166666666666667</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="E26">
-        <v>0.5163636363636364</v>
+        <v>0.5075</v>
       </c>
       <c r="F26">
-        <v>0.4556962025316456</v>
+        <v>0.4403669724770642</v>
       </c>
       <c r="G26">
-        <v>0.4946619217081851</v>
+        <v>0.4850374064837905</v>
       </c>
       <c r="H26">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.52</v>
+        <v>0.4298245614035088</v>
       </c>
       <c r="C27">
-        <v>0.5346225826575172</v>
+        <v>0.5363864491844417</v>
       </c>
       <c r="D27">
-        <v>0.4942528735632184</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="E27">
-        <v>0.5183823529411765</v>
+        <v>0.5</v>
       </c>
       <c r="F27">
-        <v>0.5194805194805194</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="G27">
-        <v>0.4988009592326139</v>
+        <v>0.4832298136645963</v>
       </c>
       <c r="H27">
-        <v>0.426</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4953271028037383</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C28">
-        <v>0.5319148936170213</v>
+        <v>0.5359951603145795</v>
       </c>
       <c r="D28">
-        <v>0.4574468085106383</v>
+        <v>0.5125</v>
       </c>
       <c r="E28">
-        <v>0.513715710723192</v>
+        <v>0.4933973589435774</v>
       </c>
       <c r="F28">
-        <v>0.4235294117647059</v>
+        <v>0.5</v>
       </c>
       <c r="G28">
-        <v>0.4993865030674847</v>
+        <v>0.4810281517747858</v>
       </c>
       <c r="H28">
-        <v>0.424</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5048543689320388</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C29">
-        <v>0.5330553901131626</v>
+        <v>0.5334517465956187</v>
       </c>
       <c r="D29">
-        <v>0.462962962962963</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="E29">
-        <v>0.5214646464646465</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="F29">
-        <v>0.4411764705882353</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="G29">
-        <v>0.5012406947890818</v>
+        <v>0.4889434889434889</v>
       </c>
       <c r="H29">
-        <v>0.416</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5242718446601942</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C30">
-        <v>0.5298165137614679</v>
+        <v>0.5323411562678878</v>
       </c>
       <c r="D30">
-        <v>0.4553571428571428</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="E30">
-        <v>0.5199501246882793</v>
+        <v>0.491504854368932</v>
       </c>
       <c r="F30">
-        <v>0.3760683760683761</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="G30">
-        <v>0.5</v>
+        <v>0.4907749077490775</v>
       </c>
       <c r="H30">
-        <v>0.412</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5392156862745098</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="C31">
-        <v>0.5280399777901166</v>
+        <v>0.5355555555555556</v>
       </c>
       <c r="D31">
-        <v>0.4111111111111111</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="E31">
-        <v>0.5227552275522755</v>
+        <v>0.4907749077490775</v>
       </c>
       <c r="F31">
-        <v>0.3809523809523809</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="G31">
-        <v>0.5024691358024691</v>
+        <v>0.4943960149439601</v>
       </c>
       <c r="H31">
-        <v>0.414</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5327868852459017</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="C32">
-        <v>0.5283937263385614</v>
+        <v>0.5423913043478261</v>
       </c>
       <c r="D32">
-        <v>0.4772727272727273</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="E32">
-        <v>0.5244498777506112</v>
+        <v>0.4848101265822785</v>
       </c>
       <c r="F32">
-        <v>0.3870967741935484</v>
+        <v>0.4375</v>
       </c>
       <c r="G32">
-        <v>0.5012406947890818</v>
+        <v>0.5075</v>
       </c>
       <c r="H32">
-        <v>0.408</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5454545454545454</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C33">
-        <v>0.5296610169491526</v>
+        <v>0.5412698412698412</v>
       </c>
       <c r="D33">
-        <v>0.4329896907216495</v>
+        <v>0.353448275862069</v>
       </c>
       <c r="E33">
-        <v>0.5176184690157959</v>
+        <v>0.4861809045226131</v>
       </c>
       <c r="F33">
-        <v>0.4727272727272727</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="G33">
-        <v>0.4993909866017052</v>
+        <v>0.5049875311720698</v>
       </c>
       <c r="H33">
-        <v>0.406</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.4741379310344828</v>
+        <v>0.6082474226804123</v>
       </c>
       <c r="C34">
-        <v>0.5279792746113989</v>
+        <v>0.5345005149330587</v>
       </c>
       <c r="D34">
-        <v>0.4065934065934066</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="E34">
-        <v>0.5258620689655172</v>
+        <v>0.4856070087609512</v>
       </c>
       <c r="F34">
-        <v>0.5154639175257731</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="G34">
-        <v>0.4975186104218362</v>
+        <v>0.5080545229244114</v>
       </c>
       <c r="H34">
-        <v>0.396</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5225225225225225</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C35">
-        <v>0.5302724520686175</v>
+        <v>0.5298245614035088</v>
       </c>
       <c r="D35">
-        <v>0.4257425742574257</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="E35">
-        <v>0.5291201982651796</v>
+        <v>0.4815724815724816</v>
       </c>
       <c r="F35">
-        <v>0.4313725490196079</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="G35">
-        <v>0.4907063197026023</v>
+        <v>0.5084337349397591</v>
       </c>
       <c r="H35">
-        <v>0.396</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.55</v>
+        <v>0.5229357798165137</v>
       </c>
       <c r="C36">
-        <v>0.5288888888888889</v>
+        <v>0.5300146412884333</v>
       </c>
       <c r="D36">
-        <v>0.4623655913978494</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="E36">
-        <v>0.5175879396984925</v>
+        <v>0.4765342960288809</v>
       </c>
       <c r="F36">
-        <v>0.4466019417475728</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G36">
-        <v>0.493099121706399</v>
+        <v>0.5071599045346062</v>
       </c>
       <c r="H36">
-        <v>0.406</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5384615384615384</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="C37">
-        <v>0.5265700483091788</v>
+        <v>0.5300336376741951</v>
       </c>
       <c r="D37">
-        <v>0.4105263157894737</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E37">
-        <v>0.5141800246609125</v>
+        <v>0.4776299879081016</v>
       </c>
       <c r="F37">
-        <v>0.5514018691588785</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="G37">
-        <v>0.4906367041198502</v>
+        <v>0.5011990407673861</v>
       </c>
       <c r="H37">
-        <v>0.402</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5478260869565217</v>
+        <v>0.4795918367346939</v>
       </c>
       <c r="C38">
-        <v>0.5296331138287864</v>
+        <v>0.5320542817033224</v>
       </c>
       <c r="D38">
-        <v>0.4175824175824176</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="E38">
-        <v>0.5170731707317073</v>
+        <v>0.4877450980392157</v>
       </c>
       <c r="F38">
-        <v>0.5454545454545454</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="G38">
-        <v>0.491358024691358</v>
+        <v>0.508578431372549</v>
       </c>
       <c r="H38">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.5169491525423728</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="C39">
-        <v>0.5306776556776557</v>
+        <v>0.5302197802197802</v>
       </c>
       <c r="D39">
-        <v>0.4065934065934066</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="E39">
-        <v>0.5248484848484849</v>
+        <v>0.4881693648816937</v>
       </c>
       <c r="F39">
-        <v>0.46875</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="G39">
-        <v>0.5</v>
+        <v>0.4963054187192118</v>
       </c>
       <c r="H39">
-        <v>0.402</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4862385321100918</v>
+        <v>0.5</v>
       </c>
       <c r="C40">
-        <v>0.5304114490161002</v>
+        <v>0.5281151596941071</v>
       </c>
       <c r="D40">
-        <v>0.3777777777777778</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="E40">
-        <v>0.5193236714975845</v>
+        <v>0.4919053549190536</v>
       </c>
       <c r="F40">
-        <v>0.4222222222222222</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="G40">
-        <v>0.5054678007290401</v>
+        <v>0.5012285012285013</v>
       </c>
       <c r="H40">
-        <v>0.408</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,22 +1440,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.58</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C41">
-        <v>0.533129904097646</v>
+        <v>0.5280600972160848</v>
       </c>
       <c r="D41">
-        <v>0.4615384615384616</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E41">
-        <v>0.5200974421437271</v>
+        <v>0.4950248756218906</v>
       </c>
       <c r="F41">
-        <v>0.4875</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G41">
-        <v>0.5</v>
+        <v>0.5048899755501223</v>
       </c>
       <c r="H41">
         <v>0.422</v>
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5478260869565217</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C42">
-        <v>0.5277540563620837</v>
+        <v>0.524263431542461</v>
       </c>
       <c r="D42">
-        <v>0.4528301886792453</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="E42">
-        <v>0.5149253731343284</v>
+        <v>0.5061881188118812</v>
       </c>
       <c r="F42">
-        <v>0.4823529411764706</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="G42">
-        <v>0.4945054945054945</v>
+        <v>0.5079171741778319</v>
       </c>
       <c r="H42">
-        <v>0.42</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.5163934426229508</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C43">
-        <v>0.5281512605042017</v>
+        <v>0.5257601351351351</v>
       </c>
       <c r="D43">
-        <v>0.4464285714285715</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E43">
-        <v>0.5233291298865069</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="F43">
-        <v>0.4545454545454545</v>
+        <v>0.3814432989690721</v>
       </c>
       <c r="G43">
-        <v>0.4981684981684982</v>
+        <v>0.5061124694376528</v>
       </c>
       <c r="H43">
-        <v>0.406</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4953271028037383</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C44">
-        <v>0.5277892136681762</v>
+        <v>0.5290004113533525</v>
       </c>
       <c r="D44">
-        <v>0.4807692307692308</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="E44">
-        <v>0.5308641975308642</v>
+        <v>0.5115712545676004</v>
       </c>
       <c r="F44">
-        <v>0.3608247422680412</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="G44">
-        <v>0.5024271844660194</v>
+        <v>0.4975903614457831</v>
       </c>
       <c r="H44">
-        <v>0.398</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5221238938053098</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="C45">
-        <v>0.5292467948717948</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="D45">
-        <v>0.4482758620689655</v>
+        <v>0.4431818181818182</v>
       </c>
       <c r="E45">
-        <v>0.5226438188494492</v>
+        <v>0.5060975609756098</v>
       </c>
       <c r="F45">
-        <v>0.3690476190476191</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="G45">
-        <v>0.5012106537530266</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="H45">
-        <v>0.41</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.45</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C46">
-        <v>0.526813880126183</v>
+        <v>0.5275684252280841</v>
       </c>
       <c r="D46">
-        <v>0.3846153846153846</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="E46">
-        <v>0.524390243902439</v>
+        <v>0.5198019801980198</v>
       </c>
       <c r="F46">
-        <v>0.4642857142857143</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="G46">
-        <v>0.5</v>
+        <v>0.4938875305623472</v>
       </c>
       <c r="H46">
-        <v>0.402</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.4953271028037383</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="C47">
-        <v>0.5276497695852534</v>
+        <v>0.5254171517268141</v>
       </c>
       <c r="D47">
-        <v>0.4347826086956522</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="E47">
-        <v>0.5258724428399518</v>
+        <v>0.5160493827160494</v>
       </c>
       <c r="F47">
-        <v>0.4693877551020408</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="G47">
-        <v>0.4915458937198068</v>
+        <v>0.491421568627451</v>
       </c>
       <c r="H47">
-        <v>0.406</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5042016806722689</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="C48">
-        <v>0.5254946727549468</v>
+        <v>0.5236811705814401</v>
       </c>
       <c r="D48">
-        <v>0.5056179775280899</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="E48">
-        <v>0.5236318407960199</v>
+        <v>0.5132075471698113</v>
       </c>
       <c r="F48">
-        <v>0.4761904761904762</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="G48">
-        <v>0.4950124688279302</v>
+        <v>0.4925</v>
       </c>
       <c r="H48">
-        <v>0.402</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5508474576271186</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="C49">
-        <v>0.5275471698113208</v>
+        <v>0.5223768333960135</v>
       </c>
       <c r="D49">
-        <v>0.4854368932038835</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="E49">
-        <v>0.5194968553459119</v>
+        <v>0.5143570536828964</v>
       </c>
       <c r="F49">
-        <v>0.4948453608247423</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="G49">
-        <v>0.5012376237623762</v>
+        <v>0.4785801713586291</v>
       </c>
       <c r="H49">
-        <v>0.396</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.584070796460177</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="C50">
-        <v>0.5264520902700703</v>
+        <v>0.5244988864142539</v>
       </c>
       <c r="D50">
-        <v>0.4158415841584158</v>
+        <v>0.4239130434782609</v>
       </c>
       <c r="E50">
-        <v>0.52125</v>
+        <v>0.5219573400250941</v>
       </c>
       <c r="F50">
-        <v>0.5050505050505051</v>
+        <v>0.4625</v>
       </c>
       <c r="G50">
-        <v>0.5</v>
+        <v>0.4791154791154791</v>
       </c>
       <c r="H50">
-        <v>0.398</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.504950495049505</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C51">
-        <v>0.5244122965641953</v>
+        <v>0.5240349599417334</v>
       </c>
       <c r="D51">
-        <v>0.4148936170212766</v>
+        <v>0.3936170212765958</v>
       </c>
       <c r="E51">
-        <v>0.5201465201465202</v>
+        <v>0.5269607843137255</v>
       </c>
       <c r="F51">
-        <v>0.4646464646464646</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="G51">
-        <v>0.4951573849878935</v>
+        <v>0.48014440433213</v>
       </c>
       <c r="H51">
-        <v>0.406</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.4862385321100918</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="C52">
-        <v>0.5253097345132743</v>
+        <v>0.5244381020335355</v>
       </c>
       <c r="D52">
-        <v>0.3974358974358974</v>
+        <v>0.4069767441860465</v>
       </c>
       <c r="E52">
-        <v>0.511543134872418</v>
+        <v>0.524788391777509</v>
       </c>
       <c r="F52">
-        <v>0.4337349397590362</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="G52">
-        <v>0.5054678007290401</v>
+        <v>0.4802395209580838</v>
       </c>
       <c r="H52">
-        <v>0.402</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5221238938053098</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="C53">
-        <v>0.5253164556962026</v>
+        <v>0.5270555165144062</v>
       </c>
       <c r="D53">
-        <v>0.4725274725274725</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="E53">
-        <v>0.5104551045510455</v>
+        <v>0.5281862745098039</v>
       </c>
       <c r="F53">
-        <v>0.4588235294117647</v>
+        <v>0.3780487804878049</v>
       </c>
       <c r="G53">
-        <v>0.5012345679012346</v>
+        <v>0.4824242424242424</v>
       </c>
       <c r="H53">
-        <v>0.418</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5486725663716814</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="C54">
-        <v>0.5230662504335761</v>
+        <v>0.5275563258232235</v>
       </c>
       <c r="D54">
-        <v>0.4356435643564356</v>
+        <v>0.34375</v>
       </c>
       <c r="E54">
-        <v>0.5125313283208021</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="F54">
-        <v>0.4247787610619469</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G54">
-        <v>0.5031055900621118</v>
+        <v>0.480440097799511</v>
       </c>
       <c r="H54">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5849056603773585</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="C55">
-        <v>0.5222713362801769</v>
+        <v>0.5250425894378195</v>
       </c>
       <c r="D55">
-        <v>0.4623655913978494</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E55">
-        <v>0.5098039215686274</v>
+        <v>0.5257352941176471</v>
       </c>
       <c r="F55">
-        <v>0.3867924528301887</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G55">
-        <v>0.5111386138613861</v>
+        <v>0.4763061968408263</v>
       </c>
       <c r="H55">
-        <v>0.42</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4789915966386555</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C56">
-        <v>0.5216811207471648</v>
+        <v>0.5235864837738374</v>
       </c>
       <c r="D56">
-        <v>0.4367816091954023</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="E56">
-        <v>0.5036144578313253</v>
+        <v>0.5165644171779141</v>
       </c>
       <c r="F56">
-        <v>0.4520547945205479</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="G56">
-        <v>0.5170316301703163</v>
+        <v>0.464975845410628</v>
       </c>
       <c r="H56">
-        <v>0.408</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4957264957264957</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C57">
-        <v>0.5262116716122651</v>
+        <v>0.5232596502804355</v>
       </c>
       <c r="D57">
-        <v>0.4235294117647059</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="E57">
-        <v>0.5012165450121655</v>
+        <v>0.5184275184275184</v>
       </c>
       <c r="F57">
-        <v>0.4285714285714285</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="G57">
-        <v>0.5077105575326216</v>
+        <v>0.4606060606060606</v>
       </c>
       <c r="H57">
-        <v>0.418</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5283018867924528</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="C58">
-        <v>0.525836854078648</v>
+        <v>0.5253082414016872</v>
       </c>
       <c r="D58">
-        <v>0.4166666666666667</v>
+        <v>0.4766355140186916</v>
       </c>
       <c r="E58">
-        <v>0.5</v>
+        <v>0.5099255583126551</v>
       </c>
       <c r="F58">
-        <v>0.4337349397590362</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="G58">
-        <v>0.5144578313253012</v>
+        <v>0.4573170731707317</v>
       </c>
       <c r="H58">
-        <v>0.422</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5575221238938053</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C59">
-        <v>0.5234899328859061</v>
+        <v>0.5243433696348495</v>
       </c>
       <c r="D59">
-        <v>0.4205607476635514</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="E59">
-        <v>0.505</v>
+        <v>0.5181932245922208</v>
       </c>
       <c r="F59">
-        <v>0.4285714285714285</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="G59">
-        <v>0.5201465201465202</v>
+        <v>0.4550970873786408</v>
       </c>
       <c r="H59">
-        <v>0.408</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5555555555555556</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C60">
-        <v>0.5223454833597464</v>
+        <v>0.5207808564231738</v>
       </c>
       <c r="D60">
-        <v>0.4795918367346939</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="E60">
-        <v>0.4961734693877551</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="F60">
-        <v>0.4090909090909091</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="G60">
-        <v>0.5141800246609125</v>
+        <v>0.4531059683313033</v>
       </c>
       <c r="H60">
-        <v>0.418</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5533980582524272</v>
+        <v>0.575</v>
       </c>
       <c r="C61">
-        <v>0.5225422667501566</v>
+        <v>0.519164848862574</v>
       </c>
       <c r="D61">
-        <v>0.4622641509433962</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="E61">
-        <v>0.4866581956797967</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="F61">
-        <v>0.5</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="G61">
-        <v>0.5081148564294632</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="H61">
-        <v>0.434</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5268817204301075</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C62">
-        <v>0.5214043732676317</v>
+        <v>0.5168261809200371</v>
       </c>
       <c r="D62">
-        <v>0.4727272727272727</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="E62">
-        <v>0.487468671679198</v>
+        <v>0.5328376703841388</v>
       </c>
       <c r="F62">
-        <v>0.4653465346534654</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="G62">
-        <v>0.5037220843672456</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="H62">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,22 +2012,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.574468085106383</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="C63">
-        <v>0.5215281989084294</v>
+        <v>0.5187424425634825</v>
       </c>
       <c r="D63">
-        <v>0.43</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E63">
-        <v>0.485</v>
+        <v>0.5224787363304981</v>
       </c>
       <c r="F63">
-        <v>0.4044943820224719</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="G63">
-        <v>0.5074074074074074</v>
+        <v>0.4586374695863747</v>
       </c>
       <c r="H63">
         <v>0.43</v>
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5520833333333334</v>
+        <v>0.4591836734693878</v>
       </c>
       <c r="C64">
-        <v>0.5195230998509687</v>
+        <v>0.5234560570071259</v>
       </c>
       <c r="D64">
-        <v>0.4433962264150944</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="E64">
-        <v>0.4876847290640394</v>
+        <v>0.5317073170731708</v>
       </c>
       <c r="F64">
-        <v>0.4285714285714285</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="G64">
-        <v>0.5139056831922612</v>
+        <v>0.4587378640776699</v>
       </c>
       <c r="H64">
-        <v>0.432</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4851485148514851</v>
+        <v>0.49</v>
       </c>
       <c r="C65">
-        <v>0.5177575579688876</v>
+        <v>0.5218924478401411</v>
       </c>
       <c r="D65">
-        <v>0.4148936170212766</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E65">
-        <v>0.4889705882352941</v>
+        <v>0.5286935286935287</v>
       </c>
       <c r="F65">
-        <v>0.4418604651162791</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="G65">
-        <v>0.5101796407185629</v>
+        <v>0.4577723378212974</v>
       </c>
       <c r="H65">
-        <v>0.434</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.4455445544554456</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="C66">
-        <v>0.52</v>
+        <v>0.5200581395348837</v>
       </c>
       <c r="D66">
-        <v>0.5189873417721519</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E66">
-        <v>0.4963414634146341</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="F66">
-        <v>0.4266666666666667</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="G66">
-        <v>0.5108433734939759</v>
+        <v>0.4676434676434676</v>
       </c>
       <c r="H66">
-        <v>0.442</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.4732142857142857</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="C67">
-        <v>0.5200228832951945</v>
+        <v>0.5207915113277889</v>
       </c>
       <c r="D67">
-        <v>0.4725274725274725</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="E67">
-        <v>0.5036319612590799</v>
+        <v>0.5180124223602485</v>
       </c>
       <c r="F67">
-        <v>0.3855421686746988</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="G67">
-        <v>0.5167865707434053</v>
+        <v>0.4687116564417178</v>
       </c>
       <c r="H67">
-        <v>0.424</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5048543689320388</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C68">
-        <v>0.5188759579903491</v>
+        <v>0.5182771323321054</v>
       </c>
       <c r="D68">
-        <v>0.5050505050505051</v>
+        <v>0.41</v>
       </c>
       <c r="E68">
-        <v>0.5055900621118012</v>
+        <v>0.5259259259259259</v>
       </c>
       <c r="F68">
-        <v>0.3191489361702128</v>
+        <v>0.4742268041237113</v>
       </c>
       <c r="G68">
-        <v>0.5221130221130221</v>
+        <v>0.4585908529048208</v>
       </c>
       <c r="H68">
-        <v>0.402</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5046728971962616</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="C69">
-        <v>0.5184460592509782</v>
+        <v>0.5166526728239574</v>
       </c>
       <c r="D69">
-        <v>0.4821428571428572</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="E69">
-        <v>0.5050125313283208</v>
+        <v>0.5313653136531366</v>
       </c>
       <c r="F69">
-        <v>0.3944954128440367</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="G69">
-        <v>0.5235148514851485</v>
+        <v>0.4596577017114915</v>
       </c>
       <c r="H69">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5412844036697247</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="C70">
-        <v>0.5191029900332226</v>
+        <v>0.5181591350152481</v>
       </c>
       <c r="D70">
-        <v>0.4245283018867925</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="E70">
-        <v>0.5095298602287166</v>
+        <v>0.5276752767527675</v>
       </c>
       <c r="F70">
-        <v>0.4257425742574257</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="G70">
-        <v>0.5220125786163522</v>
+        <v>0.4698646986469865</v>
       </c>
       <c r="H70">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5050505050505051</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="C71">
-        <v>0.5176374077112387</v>
+        <v>0.518042646254784</v>
       </c>
       <c r="D71">
-        <v>0.4298245614035088</v>
+        <v>0.4311926605504587</v>
       </c>
       <c r="E71">
-        <v>0.5113065326633166</v>
+        <v>0.5296296296296297</v>
       </c>
       <c r="F71">
-        <v>0.4174757281553398</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="G71">
-        <v>0.5174129353233831</v>
+        <v>0.4700122399020808</v>
       </c>
       <c r="H71">
-        <v>0.388</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5333333333333333</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="C72">
-        <v>0.5213537469782433</v>
+        <v>0.5159718462371413</v>
       </c>
       <c r="D72">
-        <v>0.4090909090909091</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="E72">
-        <v>0.5074812967581047</v>
+        <v>0.5264483627204031</v>
       </c>
       <c r="F72">
-        <v>0.4555555555555555</v>
+        <v>0.43</v>
       </c>
       <c r="G72">
-        <v>0.5085995085995086</v>
+        <v>0.4794007490636704</v>
       </c>
       <c r="H72">
-        <v>0.41</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5528455284552846</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C73">
-        <v>0.5215413433235215</v>
+        <v>0.5175086875167068</v>
       </c>
       <c r="D73">
-        <v>0.2962962962962963</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="E73">
-        <v>0.5024154589371981</v>
+        <v>0.5225563909774437</v>
       </c>
       <c r="F73">
-        <v>0.4719101123595505</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="G73">
-        <v>0.5</v>
+        <v>0.4738805970149254</v>
       </c>
       <c r="H73">
-        <v>0.408</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5137614678899083</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="C74">
-        <v>0.519936625297069</v>
+        <v>0.5187632135306554</v>
       </c>
       <c r="D74">
-        <v>0.3170731707317073</v>
+        <v>0.412280701754386</v>
       </c>
       <c r="E74">
-        <v>0.5</v>
+        <v>0.5164141414141414</v>
       </c>
       <c r="F74">
-        <v>0.4534883720930232</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="G74">
-        <v>0.5012106537530266</v>
+        <v>0.4697156983930779</v>
       </c>
       <c r="H74">
-        <v>0.41</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.4951456310679612</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="C75">
-        <v>0.519730010384216</v>
+        <v>0.5179084967320261</v>
       </c>
       <c r="D75">
-        <v>0.4047619047619048</v>
+        <v>0.3727272727272727</v>
       </c>
       <c r="E75">
-        <v>0.4952267303102625</v>
+        <v>0.5203045685279187</v>
       </c>
       <c r="F75">
-        <v>0.3764705882352941</v>
+        <v>0.5</v>
       </c>
       <c r="G75">
-        <v>0.5035799522673031</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="H75">
-        <v>0.418</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.4166666666666667</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C76">
-        <v>0.5208706786171575</v>
+        <v>0.5185849782107153</v>
       </c>
       <c r="D76">
-        <v>0.4545454545454545</v>
+        <v>0.4414414414414414</v>
       </c>
       <c r="E76">
-        <v>0.4874551971326165</v>
+        <v>0.5181476846057572</v>
       </c>
       <c r="F76">
-        <v>0.3421052631578947</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="G76">
-        <v>0.5137067938021455</v>
+        <v>0.4763636363636364</v>
       </c>
       <c r="H76">
-        <v>0.404</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.4814814814814815</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="C77">
-        <v>0.5229637147931997</v>
+        <v>0.5184623166413759</v>
       </c>
       <c r="D77">
-        <v>0.4065934065934066</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="E77">
-        <v>0.485958485958486</v>
+        <v>0.5129469790382244</v>
       </c>
       <c r="F77">
-        <v>0.4941176470588236</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="G77">
-        <v>0.5108173076923077</v>
+        <v>0.4822695035460993</v>
       </c>
       <c r="H77">
-        <v>0.408</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.4811320754716981</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="C78">
-        <v>0.5215755143000502</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="D78">
-        <v>0.4782608695652174</v>
+        <v>0.4069767441860465</v>
       </c>
       <c r="E78">
-        <v>0.4907749077490775</v>
+        <v>0.5141800246609125</v>
       </c>
       <c r="F78">
-        <v>0.4742268041237113</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G78">
-        <v>0.4945321992709599</v>
+        <v>0.4774346793349168</v>
       </c>
       <c r="H78">
-        <v>0.422</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.4684684684684685</v>
+        <v>0.4174757281553398</v>
       </c>
       <c r="C79">
-        <v>0.5205547300643883</v>
+        <v>0.518823236100723</v>
       </c>
       <c r="D79">
-        <v>0.4375</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="E79">
-        <v>0.4747847478474785</v>
+        <v>0.513715710723192</v>
       </c>
       <c r="F79">
-        <v>0.44</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="G79">
-        <v>0.5024570024570024</v>
+        <v>0.4754901960784313</v>
       </c>
       <c r="H79">
-        <v>0.414</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5221238938053098</v>
+        <v>0.44</v>
       </c>
       <c r="C80">
-        <v>0.519588638589618</v>
+        <v>0.5201474201474201</v>
       </c>
       <c r="D80">
-        <v>0.4782608695652174</v>
+        <v>0.4134615384615384</v>
       </c>
       <c r="E80">
-        <v>0.4841075794621027</v>
+        <v>0.5110837438423645</v>
       </c>
       <c r="F80">
-        <v>0.5</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="G80">
-        <v>0.5030674846625767</v>
+        <v>0.4728395061728395</v>
       </c>
       <c r="H80">
-        <v>0.424</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.4563106796116505</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C81">
-        <v>0.5177012609117362</v>
+        <v>0.5181132992949186</v>
       </c>
       <c r="D81">
-        <v>0.4880952380952381</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="E81">
-        <v>0.4895448954489545</v>
+        <v>0.5117139334155364</v>
       </c>
       <c r="F81">
-        <v>0.4069767441860465</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="G81">
-        <v>0.5061728395061729</v>
+        <v>0.4784747847478475</v>
       </c>
       <c r="H81">
-        <v>0.422</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.4642857142857143</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="C82">
-        <v>0.5207185628742514</v>
+        <v>0.5163147792706334</v>
       </c>
       <c r="D82">
-        <v>0.4395604395604396</v>
+        <v>0.5</v>
       </c>
       <c r="E82">
-        <v>0.5012315270935961</v>
+        <v>0.50187265917603</v>
       </c>
       <c r="F82">
-        <v>0.3666666666666666</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G82">
-        <v>0.5160493827160494</v>
+        <v>0.4822954822954823</v>
       </c>
       <c r="H82">
-        <v>0.414</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.4424778761061947</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="C83">
-        <v>0.5208432022738039</v>
+        <v>0.5148774101404427</v>
       </c>
       <c r="D83">
-        <v>0.3645833333333333</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="E83">
-        <v>0.5134474327628362</v>
+        <v>0.5080545229244114</v>
       </c>
       <c r="F83">
-        <v>0.3085106382978723</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="G83">
-        <v>0.5176613885505481</v>
+        <v>0.4783132530120482</v>
       </c>
       <c r="H83">
-        <v>0.406</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.4705882352941176</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="C84">
-        <v>0.5213314580403188</v>
+        <v>0.5150801131008482</v>
       </c>
       <c r="D84">
-        <v>0.34375</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E84">
-        <v>0.5121654501216545</v>
+        <v>0.5166461159062885</v>
       </c>
       <c r="F84">
-        <v>0.2962962962962963</v>
+        <v>0.4125</v>
       </c>
       <c r="G84">
-        <v>0.5181598062953995</v>
+        <v>0.479368932038835</v>
       </c>
       <c r="H84">
-        <v>0.4</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5363636363636364</v>
+        <v>0.45</v>
       </c>
       <c r="C85">
-        <v>0.5203063355766999</v>
+        <v>0.5148053159244579</v>
       </c>
       <c r="D85">
-        <v>0.3369565217391304</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="E85">
-        <v>0.5168119551681195</v>
+        <v>0.5237515225334958</v>
       </c>
       <c r="F85">
-        <v>0.4352941176470588</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="G85">
-        <v>0.5140073081607796</v>
+        <v>0.4830917874396135</v>
       </c>
       <c r="H85">
-        <v>0.406</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5405405405405406</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="C86">
-        <v>0.5178530292559318</v>
+        <v>0.5150602409638554</v>
       </c>
       <c r="D86">
-        <v>0.4234234234234234</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="E86">
-        <v>0.5188442211055276</v>
+        <v>0.5291970802919708</v>
       </c>
       <c r="F86">
-        <v>0.42</v>
+        <v>0.3804347826086957</v>
       </c>
       <c r="G86">
-        <v>0.5024752475247525</v>
+        <v>0.4803439803439803</v>
       </c>
       <c r="H86">
-        <v>0.414</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4952380952380953</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="C87">
-        <v>0.5167311632142044</v>
+        <v>0.5111974405850092</v>
       </c>
       <c r="D87">
-        <v>0.5132743362831859</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="E87">
-        <v>0.5112781954887218</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="F87">
-        <v>0.4210526315789473</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="G87">
-        <v>0.5018450184501845</v>
+        <v>0.4732360097323601</v>
       </c>
       <c r="H87">
-        <v>0.402</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5309734513274337</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="C88">
-        <v>0.5172026085001125</v>
+        <v>0.5111965618638317</v>
       </c>
       <c r="D88">
-        <v>0.5048543689320388</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="E88">
-        <v>0.5018587360594795</v>
+        <v>0.5244498777506112</v>
       </c>
       <c r="F88">
-        <v>0.4942528735632184</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="G88">
-        <v>0.4897466827503016</v>
+        <v>0.4686346863468634</v>
       </c>
       <c r="H88">
-        <v>0.402</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5087719298245614</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C89">
-        <v>0.5159065628476085</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="D89">
-        <v>0.4947368421052631</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E89">
-        <v>0.5048780487804878</v>
+        <v>0.5158924205378973</v>
       </c>
       <c r="F89">
-        <v>0.4712643678160919</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="G89">
-        <v>0.4797619047619048</v>
+        <v>0.4723247232472325</v>
       </c>
       <c r="H89">
-        <v>0.41</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5166666666666667</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C90">
-        <v>0.5166556364438561</v>
+        <v>0.509864774994458</v>
       </c>
       <c r="D90">
-        <v>0.472972972972973</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E90">
-        <v>0.5140073081607796</v>
+        <v>0.5199516324062878</v>
       </c>
       <c r="F90">
-        <v>0.4691358024691358</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="G90">
-        <v>0.4813925570228091</v>
+        <v>0.472289156626506</v>
       </c>
       <c r="H90">
-        <v>0.414</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C91">
-        <v>0.5161148870861653</v>
+        <v>0.5103296703296704</v>
       </c>
       <c r="D91">
-        <v>0.4408602150537634</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="E91">
-        <v>0.5158924205378973</v>
+        <v>0.5152998776009792</v>
       </c>
       <c r="F91">
-        <v>0.4457831325301205</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G91">
-        <v>0.4938725490196079</v>
+        <v>0.4760736196319019</v>
       </c>
       <c r="H91">
-        <v>0.404</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5047619047619047</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="C92">
-        <v>0.5170245066146172</v>
+        <v>0.5122217372326495</v>
       </c>
       <c r="D92">
-        <v>0.4339622641509434</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="E92">
-        <v>0.5206508135168961</v>
+        <v>0.5067817509247842</v>
       </c>
       <c r="F92">
-        <v>0.4479166666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G92">
-        <v>0.4987684729064039</v>
+        <v>0.4822954822954823</v>
       </c>
       <c r="H92">
-        <v>0.392</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5229357798165137</v>
+        <v>0.5855855855855856</v>
       </c>
       <c r="C93">
-        <v>0.5155080213903743</v>
+        <v>0.5091852172033715</v>
       </c>
       <c r="D93">
-        <v>0.4454545454545454</v>
+        <v>0.4077669902912621</v>
       </c>
       <c r="E93">
-        <v>0.5209876543209877</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="F93">
-        <v>0.4545454545454545</v>
+        <v>0.4148936170212766</v>
       </c>
       <c r="G93">
-        <v>0.5072815533980582</v>
+        <v>0.484029484029484</v>
       </c>
       <c r="H93">
-        <v>0.384</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.495575221238938</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="C94">
-        <v>0.5156846121237812</v>
+        <v>0.5093287583101008</v>
       </c>
       <c r="D94">
-        <v>0.5053763440860215</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="E94">
-        <v>0.5202952029520295</v>
+        <v>0.5</v>
       </c>
       <c r="F94">
-        <v>0.4027777777777778</v>
+        <v>0.47</v>
       </c>
       <c r="G94">
-        <v>0.501207729468599</v>
+        <v>0.48721071863581</v>
       </c>
       <c r="H94">
-        <v>0.388</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4563106796116505</v>
+        <v>0.5126050420168067</v>
       </c>
       <c r="C95">
-        <v>0.5151515151515151</v>
+        <v>0.5135192676176282</v>
       </c>
       <c r="D95">
-        <v>0.4631578947368421</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="E95">
-        <v>0.5153374233128835</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="F95">
-        <v>0.4444444444444444</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="G95">
-        <v>0.5041716328963052</v>
+        <v>0.4894409937888199</v>
       </c>
       <c r="H95">
-        <v>0.406</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4252873563218391</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="C96">
-        <v>0.5155111388715387</v>
+        <v>0.5146903403086028</v>
       </c>
       <c r="D96">
-        <v>0.4747474747474748</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="E96">
-        <v>0.5086848635235732</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="F96">
-        <v>0.4042553191489361</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="G96">
-        <v>0.5060827250608273</v>
+        <v>0.4894671623296158</v>
       </c>
       <c r="H96">
-        <v>0.386</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.47</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="C97">
-        <v>0.5154575432811211</v>
+        <v>0.515778474399164</v>
       </c>
       <c r="D97">
-        <v>0.4948453608247423</v>
+        <v>0.3189655172413793</v>
       </c>
       <c r="E97">
-        <v>0.5232704402515723</v>
+        <v>0.5124378109452736</v>
       </c>
       <c r="F97">
-        <v>0.49</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="G97">
-        <v>0.5068493150684932</v>
+        <v>0.4956736711990111</v>
       </c>
       <c r="H97">
-        <v>0.396</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4814814814814815</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C98">
-        <v>0.5159509202453988</v>
+        <v>0.5147241808378267</v>
       </c>
       <c r="D98">
-        <v>0.4803921568627451</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="E98">
-        <v>0.5173697270471465</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="F98">
-        <v>0.4036697247706422</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="G98">
-        <v>0.5</v>
+        <v>0.4981684981684982</v>
       </c>
       <c r="H98">
-        <v>0.404</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4653465346534654</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C99">
-        <v>0.5145295671611461</v>
+        <v>0.5126205622819618</v>
       </c>
       <c r="D99">
-        <v>0.41</v>
+        <v>0.3936170212765958</v>
       </c>
       <c r="E99">
-        <v>0.5243445692883895</v>
+        <v>0.4771886559802713</v>
       </c>
       <c r="F99">
-        <v>0.4271844660194175</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="G99">
-        <v>0.4943960149439601</v>
+        <v>0.4950980392156863</v>
       </c>
       <c r="H99">
-        <v>0.414</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.3978494623655914</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C100">
-        <v>0.5146999597261377</v>
+        <v>0.512555690562981</v>
       </c>
       <c r="D100">
-        <v>0.5148514851485149</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E100">
-        <v>0.5245901639344263</v>
+        <v>0.4763636363636364</v>
       </c>
       <c r="F100">
-        <v>0.3592233009708738</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="G100">
-        <v>0.4937185929648241</v>
+        <v>0.4993894993894994</v>
       </c>
       <c r="H100">
-        <v>0.418</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.4380952380952381</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="C101">
-        <v>0.515223880597015</v>
+        <v>0.5118283881315157</v>
       </c>
       <c r="D101">
-        <v>0.4954128440366973</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="E101">
-        <v>0.5124688279301746</v>
+        <v>0.4763061968408263</v>
       </c>
       <c r="F101">
+        <v>0.3493975903614458</v>
+      </c>
+      <c r="G101">
+        <v>0.5042630937880633</v>
+      </c>
+      <c r="H101">
         <v>0.4</v>
-      </c>
-      <c r="G101">
-        <v>0.5</v>
-      </c>
-      <c r="H101">
-        <v>0.432</v>
       </c>
     </row>
   </sheetData>
